--- a/BMUS_LH_sim_pop_parameters.xlsx
+++ b/BMUS_LH_sim_pop_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin.Bohaboy\Documents\CNMI\NMarianas_Cruise_Jul2025\CNMI_unfished_sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B496A9-6521-48CE-82CD-8774612C0D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09B307-8A76-43B4-9EC1-2C995E4829AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{9042A815-CDAD-4DE4-BECF-BDB7D52D9E40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9042A815-CDAD-4DE4-BECF-BDB7D52D9E40}"/>
   </bookViews>
   <sheets>
     <sheet name="parms" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Parameter</t>
   </si>
@@ -46,9 +46,6 @@
     <t>APRU</t>
   </si>
   <si>
-    <t>CALU</t>
-  </si>
-  <si>
     <t>ETCA</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>PRZO</t>
-  </si>
-  <si>
-    <t>VALO</t>
   </si>
   <si>
     <t>Linf</t>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8956B189-10CE-47B9-97C5-4ED1527C9038}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -479,7 +473,7 @@
     <col min="2" max="2" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -504,146 +498,446 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2">
+        <v>92.9</v>
+      </c>
+      <c r="C2">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>35.9</v>
+      </c>
+      <c r="F2">
+        <v>54.5</v>
+      </c>
+      <c r="G2">
+        <v>42.9</v>
+      </c>
+      <c r="H2">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1.4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.125</v>
+      </c>
+      <c r="E4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
       </c>
       <c r="E8">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
       </c>
       <c r="E9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9.66</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>17.5</v>
+      </c>
+      <c r="G11">
+        <v>13.3</v>
+      </c>
+      <c r="H11">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>2.42</v>
+      </c>
+      <c r="D12">
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <v>3.75</v>
+      </c>
+      <c r="F12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G12">
+        <v>3.3</v>
+      </c>
+      <c r="H12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B13">
+        <v>0.17</v>
+      </c>
+      <c r="C13">
+        <v>0.22</v>
+      </c>
+      <c r="D13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.54</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13">
+        <v>0.37</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="E12">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.02</v>
+      </c>
+      <c r="H14">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="E14">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>24</v>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>100000</v>
+      </c>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>50000</v>
       </c>
       <c r="E17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <v>100000</v>
+      </c>
+      <c r="G17">
+        <v>100000</v>
+      </c>
+      <c r="H17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
       </c>
       <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
     </row>

--- a/BMUS_LH_sim_pop_parameters.xlsx
+++ b/BMUS_LH_sim_pop_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin.Bohaboy\Documents\CNMI\NMarianas_Cruise_Jul2025\CNMI_unfished_sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E09B307-8A76-43B4-9EC1-2C995E4829AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E44B7A-E3FF-45E1-A141-A1C0CF691A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9042A815-CDAD-4DE4-BECF-BDB7D52D9E40}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,25 +894,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="C17">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="D17">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="E17">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="F17">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="G17">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="H17">
-        <v>100000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">

--- a/BMUS_LH_sim_pop_parameters.xlsx
+++ b/BMUS_LH_sim_pop_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin.Bohaboy\Documents\CNMI\NMarianas_Cruise_Jul2025\CNMI_unfished_sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E44B7A-E3FF-45E1-A141-A1C0CF691A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0821C543-C908-466D-94BF-46DF5952E253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9042A815-CDAD-4DE4-BECF-BDB7D52D9E40}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,25 +894,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="C17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="D17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="E17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="F17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="H17">
-        <v>500000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">

--- a/BMUS_LH_sim_pop_parameters.xlsx
+++ b/BMUS_LH_sim_pop_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin.Bohaboy\Documents\CNMI\NMarianas_Cruise_Jul2025\CNMI_unfished_sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0821C543-C908-466D-94BF-46DF5952E253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808169C4-F283-4968-B65C-AD0389C539DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9042A815-CDAD-4DE4-BECF-BDB7D52D9E40}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Parameter</t>
   </si>
@@ -110,6 +110,24 @@
   </si>
   <si>
     <t>Linf_k_cor_TF</t>
+  </si>
+  <si>
+    <t>ETCA_F</t>
+  </si>
+  <si>
+    <t>ETCA_M</t>
+  </si>
+  <si>
+    <t>PRFI_F</t>
+  </si>
+  <si>
+    <t>PRFI_M</t>
+  </si>
+  <si>
+    <t>PRZO_F</t>
+  </si>
+  <si>
+    <t>PRZO_M</t>
   </si>
 </sst>
 </file>
@@ -461,19 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8956B189-10CE-47B9-97C5-4ED1527C9038}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="2" max="3" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,22 +502,40 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -507,25 +543,43 @@
         <v>92.9</v>
       </c>
       <c r="C2">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="D2">
+        <v>53.4</v>
+      </c>
+      <c r="E2">
+        <v>44.4</v>
+      </c>
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>35.9</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>54.5</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>58.1</v>
+      </c>
+      <c r="J2">
+        <v>53.7</v>
+      </c>
+      <c r="K2">
         <v>42.9</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>37.700000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>35.5</v>
+      </c>
+      <c r="N2">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -536,22 +590,40 @@
         <v>1.2</v>
       </c>
       <c r="D3">
+        <v>1.3</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
         <v>1.4</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <v>1.3</v>
+      </c>
+      <c r="K3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.9</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -562,22 +634,40 @@
         <v>0.2</v>
       </c>
       <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
         <v>0.125</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="G4">
+      <c r="I4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K4">
         <v>0.23100000000000001</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -602,8 +692,26 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -628,8 +736,26 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -654,8 +780,26 @@
       <c r="H7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -680,8 +824,26 @@
       <c r="H8">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>2.5</v>
+      </c>
+      <c r="J8">
+        <v>2.5</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>2.5</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -706,8 +868,26 @@
       <c r="H9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>200</v>
+      </c>
+      <c r="M9">
+        <v>200</v>
+      </c>
+      <c r="N9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -732,8 +912,26 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -744,22 +942,40 @@
         <v>9.66</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9.68</v>
       </c>
       <c r="E11">
+        <v>10.43</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>15</v>
       </c>
-      <c r="F11">
-        <v>17.5</v>
-      </c>
-      <c r="G11">
+      <c r="H11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>10.5</v>
+      </c>
+      <c r="K11">
         <v>13.3</v>
       </c>
-      <c r="H11">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <v>6.8</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -767,25 +983,43 @@
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>2.42</v>
+        <v>1.21</v>
       </c>
       <c r="D12">
-        <v>2.5</v>
+        <v>1.21</v>
       </c>
       <c r="E12">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="F12">
-        <v>4.4000000000000004</v>
+        <v>1.25</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0.93</v>
+      </c>
+      <c r="I12">
+        <v>1.2</v>
+      </c>
+      <c r="J12">
+        <v>1.05</v>
+      </c>
+      <c r="K12">
+        <v>1.3</v>
+      </c>
+      <c r="L12">
+        <v>0.68</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
+      </c>
+      <c r="N12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -796,22 +1030,40 @@
         <v>0.22</v>
       </c>
       <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>0.24</v>
+      </c>
+      <c r="F13">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.54</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.2</v>
       </c>
-      <c r="G13">
+      <c r="I13">
+        <v>0.17</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
         <v>0.37</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -822,22 +1074,40 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>3.1E-2</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>0.01</v>
+      </c>
+      <c r="J14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K14">
         <v>0.02</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -848,22 +1118,40 @@
         <v>33</v>
       </c>
       <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+      <c r="F15">
         <v>55</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>32</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>50</v>
       </c>
-      <c r="G15">
+      <c r="I15">
+        <v>50</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
         <v>28</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="M15">
+        <v>38</v>
+      </c>
+      <c r="N15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -888,8 +1176,26 @@
       <c r="H16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -906,16 +1212,34 @@
         <v>100000</v>
       </c>
       <c r="F17">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="G17">
         <v>100000</v>
       </c>
       <c r="H17">
+        <v>200000</v>
+      </c>
+      <c r="I17">
+        <v>200000</v>
+      </c>
+      <c r="J17">
+        <v>200000</v>
+      </c>
+      <c r="K17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <v>100000</v>
+      </c>
+      <c r="M17">
+        <v>100000</v>
+      </c>
+      <c r="N17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -938,6 +1262,24 @@
         <v>1</v>
       </c>
       <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
         <v>1</v>
       </c>
     </row>
